--- a/11월/11월의 Miracle.xlsx
+++ b/11월/11월의 Miracle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="13">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +644,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+      <selection activeCell="A3" sqref="A3:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44501</v>
       </c>
@@ -701,130 +713,270 @@
         <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44502</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44503</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44504</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44505</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44508</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44509</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44510</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44511</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44512</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44515</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44516</v>
       </c>
@@ -836,7 +988,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44517</v>
       </c>
@@ -850,7 +1002,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44518</v>
       </c>
@@ -862,7 +1014,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44519</v>
       </c>
@@ -874,7 +1026,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44522</v>
       </c>
@@ -886,7 +1038,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44523</v>
       </c>
@@ -898,7 +1050,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44524</v>
       </c>
@@ -912,7 +1064,7 @@
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44525</v>
       </c>
@@ -924,7 +1076,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44526</v>
       </c>
@@ -936,7 +1088,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44529</v>
       </c>
@@ -948,7 +1100,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44530</v>
       </c>
@@ -966,31 +1118,31 @@
       </c>
       <c r="B25" s="8">
         <f>(COUNTIF(B3:B24,"O")/(COUNTA(B3:B24)))</f>
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" ref="C25:H25" si="0">(COUNTIF(C3:C24,"O")/(COUNTA(C3:C24)))</f>
-        <v>1</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">

--- a/11월/11월의 Miracle.xlsx
+++ b/11월/11월의 Miracle.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\11월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INNOGRID\Documents\김수빈\miracle-morning\11월\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE2615-25EB-4689-BE42-DD65F540A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="13">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,11 +89,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +141,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -308,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,9 +341,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -655,16 +653,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -672,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -980,24 +978,48 @@
       <c r="A14" s="9">
         <v>44516</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44517</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1006,60 +1028,120 @@
       <c r="A16" s="9">
         <v>44518</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44519</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44522</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44523</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44524</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
@@ -1068,48 +1150,96 @@
       <c r="A21" s="9">
         <v>44525</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44526</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44529</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44530</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1122,11 +1252,11 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" ref="C25:H25" si="0">(COUNTIF(C3:C24,"O")/(COUNTA(C3:C24)))</f>
-        <v>0.36363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="0"/>
@@ -1134,7 +1264,7 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
